--- a/backend_tests/z_input_files/v2/13_list_of_commands_example_using_soslaires.xlsx
+++ b/backend_tests/z_input_files/v2/13_list_of_commands_example_using_soslaires.xlsx
@@ -470,10 +470,10 @@
     <t xml:space="preserve">Input</t>
   </si>
   <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
     <t xml:space="preserve">hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
   </si>
   <si>
     <t xml:space="preserve">[prov1]</t>
@@ -770,12 +770,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1038,8 +1038,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1083,8 +1083,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11241,8 +11241,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11254,8 +11254,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11267,7 +11267,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="12.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="11.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="11.38"/>
@@ -11374,7 +11374,9 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="11"/>
@@ -11402,7 +11404,7 @@
         <v>274000</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -11410,7 +11412,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>136</v>
@@ -11438,7 +11440,9 @@
       <c r="K4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11460,7 +11464,7 @@
         <v>138</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T5" s="8"/>
     </row>
@@ -11504,7 +11508,7 @@
         <v>139</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>140</v>
@@ -11531,7 +11535,7 @@
         <v>141</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T8" s="8"/>
     </row>
@@ -11559,7 +11563,7 @@
         <v>143</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T9" s="11"/>
     </row>
@@ -11587,7 +11591,7 @@
         <v>144</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T10" s="8"/>
     </row>
@@ -11610,9 +11614,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="Q11" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q11" s="10"/>
       <c r="T11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11639,7 +11641,7 @@
         <v>139</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>146</v>
@@ -11669,7 +11671,7 @@
         <v>137</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T13" s="1"/>
     </row>
@@ -11695,7 +11697,7 @@
         <v>143</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T14" s="1"/>
     </row>
@@ -11718,9 +11720,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
-      <c r="Q15" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q15" s="10"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11745,7 +11745,7 @@
         <v>143</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T16" s="1"/>
     </row>
@@ -11773,7 +11773,7 @@
         <v>143</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T17" s="1"/>
     </row>
@@ -11801,7 +11801,7 @@
         <v>137</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T18" s="1"/>
     </row>
@@ -11824,7 +11824,9 @@
       <c r="K19" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="Q19" s="10"/>
+      <c r="Q19" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11844,10 +11846,10 @@
         <v>660</v>
       </c>
       <c r="K20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T20" s="11"/>
     </row>
@@ -11870,7 +11872,9 @@
       <c r="K21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="10"/>
+      <c r="Q21" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11941,7 +11945,7 @@
         <v>89</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T24" s="0"/>
     </row>
@@ -11965,7 +11969,7 @@
         <v>149</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>150</v>
@@ -11992,7 +11996,7 @@
         <v>149</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>151</v>
@@ -12021,7 +12025,7 @@
         <v>149</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>152</v>
@@ -12044,10 +12048,10 @@
         <v>2640</v>
       </c>
       <c r="K28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T28" s="11"/>
     </row>
@@ -12070,7 +12074,9 @@
       <c r="K29" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="Q29" s="10"/>
+      <c r="Q29" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T29" s="11" t="s">
         <v>153</v>
       </c>
@@ -12094,7 +12100,9 @@
       <c r="K30" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Q30" s="10"/>
+      <c r="Q30" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T30" s="8" t="s">
         <v>154</v>
       </c>
@@ -12120,7 +12128,7 @@
         <v>89</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T31" s="11"/>
     </row>
@@ -12143,7 +12151,9 @@
       <c r="K32" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q32" s="10"/>
+      <c r="Q32" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12165,7 +12175,9 @@
       <c r="K33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q33" s="10"/>
+      <c r="Q33" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12188,7 +12200,7 @@
         <v>149</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T34" s="11" t="s">
         <v>155</v>
@@ -12214,7 +12226,7 @@
         <v>80</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T35" s="11" t="s">
         <v>155</v>
@@ -12240,7 +12252,7 @@
         <v>89</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T36" s="11"/>
     </row>
@@ -12267,7 +12279,7 @@
         <v>139</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T37" s="0"/>
     </row>
@@ -12294,7 +12306,7 @@
         <v>139</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T38" s="8" t="s">
         <v>156</v>
@@ -12318,9 +12330,7 @@
       </c>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
-      <c r="Q39" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q39" s="10"/>
       <c r="T39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12342,6 +12352,9 @@
       <c r="K40" s="8" t="s">
         <v>139</v>
       </c>
+      <c r="Q40" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="T40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12363,6 +12376,9 @@
       <c r="K41" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="Q41" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="T41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12383,6 +12399,9 @@
       </c>
       <c r="K42" s="8" t="s">
         <v>139</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="T42" s="14" t="s">
         <v>157</v>
@@ -12393,8 +12412,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12406,8 +12425,8 @@
   </sheetPr>
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q87" activeCellId="0" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12517,7 +12536,9 @@
       <c r="K2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12538,10 +12559,10 @@
         <v>21000</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T3" s="11"/>
     </row>
@@ -12564,7 +12585,7 @@
         <v>138</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T4" s="8"/>
     </row>
@@ -12608,7 +12629,7 @@
         <v>139</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>140</v>
@@ -12638,7 +12659,7 @@
         <v>143</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T7" s="11"/>
     </row>
@@ -12661,9 +12682,7 @@
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
-      <c r="Q8" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q8" s="10"/>
       <c r="T8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12688,7 +12707,7 @@
         <v>139</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T9" s="8"/>
     </row>
@@ -12714,7 +12733,7 @@
         <v>143</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T10" s="0"/>
     </row>
@@ -12737,9 +12756,7 @@
       </c>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="Q11" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q11" s="10"/>
       <c r="T11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12764,7 +12781,7 @@
         <v>143</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T12" s="0"/>
     </row>
@@ -12789,7 +12806,7 @@
         <v>143</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T13" s="0"/>
     </row>
@@ -12813,7 +12830,9 @@
       <c r="K14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12834,10 +12853,10 @@
         <v>10500</v>
       </c>
       <c r="K15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T15" s="11"/>
     </row>
@@ -12860,7 +12879,7 @@
         <v>138</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T16" s="8"/>
     </row>
@@ -12904,7 +12923,7 @@
         <v>139</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T18" s="8" t="s">
         <v>140</v>
@@ -12934,7 +12953,7 @@
         <v>143</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T19" s="11"/>
     </row>
@@ -12957,9 +12976,7 @@
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
-      <c r="Q20" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q20" s="10"/>
       <c r="T20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12984,7 +13001,7 @@
         <v>139</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T21" s="8"/>
     </row>
@@ -13010,7 +13027,7 @@
         <v>143</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T22" s="0"/>
     </row>
@@ -13033,9 +13050,7 @@
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
-      <c r="Q23" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q23" s="10"/>
       <c r="T23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13060,7 +13075,7 @@
         <v>143</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T24" s="0"/>
     </row>
@@ -13085,7 +13100,7 @@
         <v>143</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T25" s="0"/>
     </row>
@@ -13109,7 +13124,9 @@
       <c r="K26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="10"/>
+      <c r="Q26" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13130,10 +13147,10 @@
         <v>34000</v>
       </c>
       <c r="K27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q27" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T27" s="11"/>
     </row>
@@ -13156,7 +13173,7 @@
         <v>138</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T28" s="8"/>
     </row>
@@ -13200,7 +13217,7 @@
         <v>138</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T30" s="8" t="s">
         <v>140</v>
@@ -13230,7 +13247,7 @@
         <v>143</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T31" s="11"/>
     </row>
@@ -13253,9 +13270,7 @@
       </c>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
-      <c r="Q32" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q32" s="10"/>
       <c r="T32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13280,7 +13295,7 @@
         <v>139</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T33" s="8"/>
     </row>
@@ -13306,7 +13321,7 @@
         <v>143</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T34" s="0"/>
     </row>
@@ -13329,9 +13344,7 @@
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
-      <c r="Q35" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q35" s="10"/>
       <c r="T35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13356,7 +13369,7 @@
         <v>143</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T36" s="0"/>
     </row>
@@ -13381,7 +13394,7 @@
         <v>143</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T37" s="0"/>
     </row>
@@ -13405,7 +13418,9 @@
       <c r="K38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q38" s="10"/>
+      <c r="Q38" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13426,10 +13441,10 @@
         <v>8800</v>
       </c>
       <c r="K39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q39" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q39" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T39" s="11"/>
     </row>
@@ -13452,7 +13467,7 @@
         <v>138</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T40" s="8"/>
     </row>
@@ -13496,7 +13511,7 @@
         <v>139</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>140</v>
@@ -13526,7 +13541,7 @@
         <v>143</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T43" s="11"/>
     </row>
@@ -13549,9 +13564,7 @@
       </c>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
-      <c r="Q44" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q44" s="10"/>
       <c r="T44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13576,7 +13589,7 @@
         <v>139</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T45" s="8"/>
     </row>
@@ -13602,7 +13615,7 @@
         <v>143</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T46" s="0"/>
     </row>
@@ -13625,9 +13638,7 @@
       </c>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
-      <c r="Q47" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q47" s="10"/>
       <c r="T47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13652,7 +13663,7 @@
         <v>143</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T48" s="0"/>
     </row>
@@ -13677,7 +13688,7 @@
         <v>143</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T49" s="0"/>
     </row>
@@ -13701,7 +13712,9 @@
       <c r="K50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q50" s="10"/>
+      <c r="Q50" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13722,10 +13735,10 @@
         <v>8800</v>
       </c>
       <c r="K51" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q51" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q51" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T51" s="11"/>
     </row>
@@ -13748,7 +13761,7 @@
         <v>138</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T52" s="8"/>
     </row>
@@ -13792,7 +13805,7 @@
         <v>139</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>140</v>
@@ -13822,7 +13835,7 @@
         <v>143</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T55" s="11"/>
     </row>
@@ -13845,9 +13858,7 @@
       </c>
       <c r="J56" s="0"/>
       <c r="K56" s="0"/>
-      <c r="Q56" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q56" s="10"/>
       <c r="T56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13872,7 +13883,7 @@
         <v>139</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T57" s="8"/>
     </row>
@@ -13898,7 +13909,7 @@
         <v>143</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T58" s="0"/>
     </row>
@@ -13921,9 +13932,7 @@
       </c>
       <c r="J59" s="0"/>
       <c r="K59" s="0"/>
-      <c r="Q59" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q59" s="10"/>
       <c r="T59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13948,7 +13957,7 @@
         <v>143</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T60" s="0"/>
     </row>
@@ -13973,7 +13982,7 @@
         <v>143</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T61" s="0"/>
     </row>
@@ -13997,7 +14006,9 @@
       <c r="K62" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q62" s="10"/>
+      <c r="Q62" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14018,10 +14029,10 @@
         <v>4400</v>
       </c>
       <c r="K63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q63" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q63" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T63" s="11"/>
     </row>
@@ -14044,7 +14055,7 @@
         <v>138</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T64" s="8"/>
     </row>
@@ -14088,7 +14099,7 @@
         <v>139</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T66" s="8" t="s">
         <v>140</v>
@@ -14118,7 +14129,7 @@
         <v>143</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T67" s="11"/>
     </row>
@@ -14141,9 +14152,7 @@
       </c>
       <c r="J68" s="0"/>
       <c r="K68" s="0"/>
-      <c r="Q68" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q68" s="10"/>
       <c r="T68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14168,7 +14177,7 @@
         <v>139</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T69" s="8"/>
     </row>
@@ -14194,7 +14203,7 @@
         <v>143</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T70" s="0"/>
     </row>
@@ -14217,9 +14226,7 @@
       </c>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
-      <c r="Q71" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q71" s="10"/>
       <c r="T71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14244,7 +14251,7 @@
         <v>143</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T72" s="0"/>
     </row>
@@ -14269,7 +14276,7 @@
         <v>143</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T73" s="0"/>
     </row>
@@ -14293,7 +14300,9 @@
       <c r="K74" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q74" s="10"/>
+      <c r="Q74" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14314,10 +14323,10 @@
         <v>6600</v>
       </c>
       <c r="K75" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q75" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q75" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T75" s="11"/>
     </row>
@@ -14340,7 +14349,7 @@
         <v>138</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T76" s="8"/>
     </row>
@@ -14384,7 +14393,7 @@
         <v>139</v>
       </c>
       <c r="Q78" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T78" s="8" t="s">
         <v>140</v>
@@ -14414,7 +14423,7 @@
         <v>143</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T79" s="11"/>
     </row>
@@ -14437,9 +14446,7 @@
       </c>
       <c r="J80" s="0"/>
       <c r="K80" s="0"/>
-      <c r="Q80" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q80" s="10"/>
       <c r="T80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14464,7 +14471,7 @@
         <v>139</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T81" s="8"/>
     </row>
@@ -14490,7 +14497,7 @@
         <v>143</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T82" s="0"/>
     </row>
@@ -14513,9 +14520,7 @@
       </c>
       <c r="J83" s="0"/>
       <c r="K83" s="0"/>
-      <c r="Q83" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q83" s="10"/>
       <c r="T83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14540,7 +14545,7 @@
         <v>143</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T84" s="0"/>
     </row>
@@ -14565,7 +14570,7 @@
         <v>143</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T85" s="0"/>
     </row>
@@ -14589,7 +14594,9 @@
       <c r="K86" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q86" s="10"/>
+      <c r="Q86" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="T86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14610,10 +14617,10 @@
         <v>3000</v>
       </c>
       <c r="K87" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q87" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q87" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="T87" s="11"/>
     </row>
@@ -14636,7 +14643,7 @@
         <v>138</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T88" s="8"/>
     </row>
@@ -14680,7 +14687,7 @@
         <v>139</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T90" s="8" t="s">
         <v>140</v>
@@ -14708,7 +14715,7 @@
         <v>143</v>
       </c>
       <c r="Q91" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T91" s="11"/>
     </row>
@@ -14731,9 +14738,7 @@
       </c>
       <c r="J92" s="0"/>
       <c r="K92" s="0"/>
-      <c r="Q92" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q92" s="10"/>
       <c r="T92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14758,7 +14763,7 @@
         <v>139</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T93" s="8"/>
     </row>
@@ -14784,7 +14789,7 @@
         <v>143</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T94" s="1"/>
     </row>
@@ -14807,9 +14812,7 @@
       </c>
       <c r="J95" s="0"/>
       <c r="K95" s="0"/>
-      <c r="Q95" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q95" s="10"/>
       <c r="T95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14834,7 +14837,7 @@
         <v>143</v>
       </c>
       <c r="Q96" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T96" s="1"/>
     </row>
@@ -14859,7 +14862,7 @@
         <v>143</v>
       </c>
       <c r="Q97" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T97" s="1"/>
     </row>
@@ -14868,8 +14871,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
